--- a/adressbook-dev-test/adressbook-dev-test/contacts.xlsx
+++ b/adressbook-dev-test/adressbook-dev-test/contacts.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\misterYA2018\test\adressbook-dev-test\addressbook-test-data-generators\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>@G&lt;;@a</t>
-  </si>
-  <si>
-    <t>R"(S[T^NE</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -41,13 +30,19 @@
     <t>O*63%-BN</t>
   </si>
   <si>
-    <t>-`E.-4&lt;O\</t>
+    <t>мвамвамав</t>
+  </si>
+  <si>
+    <t>ывртьот</t>
+  </si>
+  <si>
+    <t>поьапвиаыч</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -175,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -352,7 +347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -362,29 +357,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
